--- a/2.stratified/Kelompok 4.xlsx
+++ b/2.stratified/Kelompok 4.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\2\4.MPS\1.mps\2.stratified\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F402F92-224A-4DAC-A05E-F072BBCE3481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C30D9090-7BB2-4DF7-9CA2-D4ADADF20008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8444D89E-ABCA-4C6E-B3A7-2C98C8C4EBB7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8444D89E-ABCA-4C6E-B3A7-2C98C8C4EBB7}"/>
   </bookViews>
   <sheets>
     <sheet name="WR" sheetId="3" r:id="rId1"/>
     <sheet name="WOR" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
   <si>
     <t>all</t>
   </si>
@@ -96,6 +97,18 @@
   <si>
     <t>Luar Jawa</t>
   </si>
+  <si>
+    <t>Pulau Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Tinggi</t>
+  </si>
+  <si>
+    <t>Pulau Tempat Tinggal2</t>
+  </si>
+  <si>
+    <t>Tinggi3</t>
+  </si>
 </sst>
 </file>
 
@@ -105,7 +118,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +130,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -191,11 +211,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,247 +344,49 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="34">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -485,6 +403,7 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -516,9 +435,176 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -546,9 +632,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -561,8 +647,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -578,7 +662,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -612,39 +726,7 @@
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -657,6 +739,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -674,7 +758,7 @@
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -687,96 +771,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -844,6 +840,295 @@
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -902,8 +1187,77 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -922,16 +1276,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>84876</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76024</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -946,16 +1300,59 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="58340"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13592175" y="1743075"/>
+          <a:ext cx="2828925" cy="1409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28190</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133169</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDB85C5-F4C2-4FA7-95D3-B51586214628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11639550" y="0"/>
-          <a:ext cx="6790476" cy="1409524"/>
+          <a:off x="13601700" y="209550"/>
+          <a:ext cx="3076190" cy="1447619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -977,8 +1374,8 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>84874</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>49686</xdr:rowOff>
     </xdr:to>
@@ -995,16 +1392,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect r="54792"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12896850" y="2314575"/>
-          <a:ext cx="6809524" cy="1438095"/>
+          <a:off x="12889566" y="2241737"/>
+          <a:ext cx="3056405" cy="1449861"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1015,23 +1411,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>588270</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>41837</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>520704</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E575E5AF-9D32-413D-96F5-D1E6E1DA0D50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB95B06D-72FB-448D-A2B1-9B8C89A1FC89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1047,8 +1443,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12942794" y="89647"/>
-          <a:ext cx="4790476" cy="1476190"/>
+          <a:off x="12897970" y="0"/>
+          <a:ext cx="2952381" cy="1447619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1061,60 +1457,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ABA518BC-10FA-4A10-913A-1AF7019B3D5B}" name="Table14" displayName="Table14" ref="A1:C36" totalsRowShown="0" headerRowDxfId="0" dataDxfId="25" headerRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ABA518BC-10FA-4A10-913A-1AF7019B3D5B}" name="Table14" displayName="Table14" ref="A1:C36" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32">
   <autoFilter ref="A1:C36" xr:uid="{513E55E3-682D-4BA5-B9E7-C759255BF22F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
     <sortCondition ref="A1:A36"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{63FCD3FC-BE0C-4579-8F56-581D8323D1F3}" name="Jawa" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{F700D309-7476-4298-ADA0-4C78526C68F1}" name="Luar Jawa" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{AD8A79DE-3762-4185-A728-730280AAEB80}" name="all" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{63FCD3FC-BE0C-4579-8F56-581D8323D1F3}" name="Jawa" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{F700D309-7476-4298-ADA0-4C78526C68F1}" name="Luar Jawa" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{AD8A79DE-3762-4185-A728-730280AAEB80}" name="all" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1D7B6300-E4B0-4D2D-ABB1-F33B3F878819}" name="Table26" displayName="Table26" ref="E1:I36" totalsRowShown="0" headerRowDxfId="2" dataDxfId="21" headerRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1D7B6300-E4B0-4D2D-ABB1-F33B3F878819}" name="Table26" displayName="Table26" ref="E1:I36" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
   <autoFilter ref="E1:I36" xr:uid="{CB6ADA1B-AE71-4B02-A91D-2E24C2500A70}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C2E16130-500A-4B5A-8318-321406923BCE}" name="Jawa" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{1AD1BA93-319D-44BD-90E8-D4702C34CB67}" name="Luar Jawa" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{F49D5590-5320-450F-AEDB-A6C2BD229A44}" name="Stratified" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{7A7A0D8B-9CA2-47E8-A28B-97D6FD67242B}" name="SRS" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{0A8238D9-372C-4BBC-A38A-CFC790D07D6B}" name="all" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{C2E16130-500A-4B5A-8318-321406923BCE}" name="Jawa" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{1AD1BA93-319D-44BD-90E8-D4702C34CB67}" name="Luar Jawa" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{F49D5590-5320-450F-AEDB-A6C2BD229A44}" name="Stratified" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{7A7A0D8B-9CA2-47E8-A28B-97D6FD67242B}" name="SRS" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{0A8238D9-372C-4BBC-A38A-CFC790D07D6B}" name="all" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CB1F03A-091A-4F8F-9DFA-DEF28CF81A2F}" name="Table1" displayName="Table1" ref="A1:C36" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CB1F03A-091A-4F8F-9DFA-DEF28CF81A2F}" name="Table1" displayName="Table1" ref="A1:C36" totalsRowShown="0" headerRowDxfId="1" dataDxfId="19">
   <autoFilter ref="A1:C36" xr:uid="{513E55E3-682D-4BA5-B9E7-C759255BF22F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
     <sortCondition ref="A1:A36"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{97F2E8E7-8936-47A5-8F4B-53C5CA19712B}" name="Jawa" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{DC1892EC-386B-4CC5-8DCA-4377EE310BFD}" name="Luar Jawa" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{D804ACFC-126A-43B7-80E4-9B7CF15D9970}" name="all" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{97F2E8E7-8936-47A5-8F4B-53C5CA19712B}" name="Jawa" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{DC1892EC-386B-4CC5-8DCA-4377EE310BFD}" name="Luar Jawa" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{D804ACFC-126A-43B7-80E4-9B7CF15D9970}" name="all" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C82611B3-8485-45BD-AD91-CAC9C91A2436}" name="Table2" displayName="Table2" ref="E1:I36" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C82611B3-8485-45BD-AD91-CAC9C91A2436}" name="Table2" displayName="Table2" ref="E1:I36" totalsRowShown="0" headerRowDxfId="0" dataDxfId="15">
   <autoFilter ref="E1:I36" xr:uid="{CB6ADA1B-AE71-4B02-A91D-2E24C2500A70}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EEF2E70D-DAEF-479C-BE84-7D04493328D1}" name="Jawa" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{202E97C3-86FF-4167-954F-395C6FA06190}" name="Luar Jawa" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{122C1CA9-B4DE-4930-8663-57586E140AF5}" name="Stratified" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{1CDE7FFF-F6A8-4877-9DD8-D0DD284774BC}" name="SRS" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{372C8563-D812-430A-9D12-0851493627CE}" name="all" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EEF2E70D-DAEF-479C-BE84-7D04493328D1}" name="Jawa" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{202E97C3-86FF-4167-954F-395C6FA06190}" name="Luar Jawa" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{122C1CA9-B4DE-4930-8663-57586E140AF5}" name="Stratified" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{1CDE7FFF-F6A8-4877-9DD8-D0DD284774BC}" name="SRS" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{372C8563-D812-430A-9D12-0851493627CE}" name="all" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{23938759-A364-44D5-BDAE-432FDA61EE14}" name="Table4" displayName="Table4" ref="A1:D19" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:D19" xr:uid="{D3CF34F1-94CB-42AC-9EE4-CEC5E3B6CD83}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1085F090-554A-4858-85F9-0D9C8C472990}" name="Pulau Tempat Tinggal" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{B5997F6B-25D0-4923-B6D0-DD11AD04001B}" name="Tinggi" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{CCFBECC7-EEDA-4882-ACF4-345BCE66F494}" name="Pulau Tempat Tinggal2" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C9C7A206-6CCC-4002-839C-B5653D197513}" name="Tinggi3" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1417,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3955FA-4B55-4B2F-895D-403BFD0BD29B}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8797E1-DF9D-4B33-B864-C4E05CB1F608}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,38 +2747,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2383,14 +2792,14 @@
       <c r="C2" s="4">
         <v>162</v>
       </c>
-      <c r="E2" s="4">
-        <v>167</v>
-      </c>
-      <c r="F2" s="4">
-        <v>166</v>
+      <c r="E2" s="9">
+        <v>155</v>
+      </c>
+      <c r="F2" s="9">
+        <v>167</v>
       </c>
       <c r="G2" s="9">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H2" s="4">
         <v>163</v>
@@ -2403,7 +2812,7 @@
       </c>
       <c r="L2" s="4">
         <f>L14*L19+M14*M19</f>
-        <v>161.23376623376623</v>
+        <v>163.49350649350649</v>
       </c>
       <c r="M2" s="4">
         <f>AVERAGE(Table2[SRS])</f>
@@ -2424,14 +2833,14 @@
       <c r="C3" s="4">
         <v>164</v>
       </c>
-      <c r="E3" s="4">
-        <v>160</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="9">
         <v>157</v>
       </c>
+      <c r="F3" s="9">
+        <v>161</v>
+      </c>
       <c r="G3" s="9">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H3" s="4">
         <v>170</v>
@@ -2459,11 +2868,11 @@
       <c r="C4" s="4">
         <v>164</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="9">
         <v>168</v>
       </c>
-      <c r="F4" s="4">
-        <v>157</v>
+      <c r="F4" s="9">
+        <v>173</v>
       </c>
       <c r="G4" s="9">
         <v>168</v>
@@ -2479,7 +2888,7 @@
       </c>
       <c r="L4" s="4">
         <f>L14^2*L21+M14^2*M21</f>
-        <v>1.2887839433293977</v>
+        <v>2.0127508854781579</v>
       </c>
       <c r="M4" s="4">
         <f>_xlfn.VAR.S(Table2[SRS])*Q11/8</f>
@@ -2497,12 +2906,12 @@
       <c r="C5" s="4">
         <v>165</v>
       </c>
-      <c r="E5" s="4">
-        <v>157</v>
+      <c r="E5" s="9">
+        <v>163</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="9">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H5" s="4">
         <v>155</v>
@@ -2515,7 +2924,7 @@
       </c>
       <c r="L5" s="5">
         <f>SQRT(L4)</f>
-        <v>1.1352462038383557</v>
+        <v>1.4187145186675711</v>
       </c>
       <c r="M5" s="4">
         <f>SQRT(M4)</f>
@@ -2536,12 +2945,12 @@
       <c r="C6" s="4">
         <v>166</v>
       </c>
-      <c r="E6" s="4">
-        <v>168</v>
+      <c r="E6" s="9">
+        <v>151</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="9">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="H6" s="4">
         <v>166</v>
@@ -2554,7 +2963,7 @@
       </c>
       <c r="L6" s="4">
         <f>L5/L2*100</f>
-        <v>0.70409953842572204</v>
+        <v>0.86774976517120483</v>
       </c>
       <c r="M6" s="4">
         <f>M5/M2*100</f>
@@ -2575,12 +2984,12 @@
       <c r="C7" s="4">
         <v>167</v>
       </c>
-      <c r="E7" s="4">
-        <v>161</v>
+      <c r="E7" s="9">
+        <v>167</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="9">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H7" s="4">
         <v>165</v>
@@ -2593,7 +3002,7 @@
       </c>
       <c r="L7" s="4">
         <f>L2+L5*1.96</f>
-        <v>163.45884879328941</v>
+        <v>166.27418695009493</v>
       </c>
       <c r="M7" s="4">
         <f>M2+M5*1.96</f>
@@ -2611,12 +3020,12 @@
       <c r="C8" s="4">
         <v>167</v>
       </c>
-      <c r="E8" s="4">
-        <v>157</v>
+      <c r="E8" s="9">
+        <v>159</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="9">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H8" s="4">
         <v>175</v>
@@ -2629,7 +3038,7 @@
       </c>
       <c r="L8" s="4">
         <f>L2-L5*1.96</f>
-        <v>159.00868367424306</v>
+        <v>160.71282603691805</v>
       </c>
       <c r="M8" s="4">
         <f>M2-M5*1.96</f>
@@ -2647,12 +3056,12 @@
       <c r="C9" s="4">
         <v>167</v>
       </c>
-      <c r="E9" s="4">
-        <v>162</v>
+      <c r="E9" s="9">
+        <v>156</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="9">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H9" s="4">
         <v>171</v>
@@ -2665,7 +3074,7 @@
       </c>
       <c r="L9" s="4">
         <f>L5/L2*100</f>
-        <v>0.70409953842572204</v>
+        <v>0.86774976517120483</v>
       </c>
       <c r="M9" s="4">
         <f>M5/M2*100</f>
@@ -2683,12 +3092,12 @@
       <c r="C10" s="4">
         <v>167</v>
       </c>
-      <c r="E10" s="4">
-        <v>151</v>
+      <c r="E10" s="9">
+        <v>170</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="9">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4">
@@ -2699,7 +3108,7 @@
       </c>
       <c r="L10" s="4">
         <f>L7-L8</f>
-        <v>4.4501651190463463</v>
+        <v>5.561360913176884</v>
       </c>
       <c r="M10" s="4">
         <f>M7-M8</f>
@@ -2717,12 +3126,12 @@
       <c r="C11" s="4">
         <v>167</v>
       </c>
-      <c r="E11" s="4">
-        <v>161</v>
+      <c r="E11" s="9">
+        <v>163</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="9">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4">
@@ -2744,12 +3153,12 @@
       <c r="C12" s="4">
         <v>168</v>
       </c>
-      <c r="E12" s="4">
-        <v>167</v>
+      <c r="E12" s="9">
+        <v>174</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="9">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4">
@@ -2767,7 +3176,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4">
@@ -2794,7 +3203,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="9">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4">
@@ -2823,7 +3232,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="9">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4">
@@ -2918,11 +3327,11 @@
       </c>
       <c r="L19" s="4">
         <f>AVERAGE(Table2[Jawa])</f>
-        <v>161.72727272727272</v>
+        <v>162.09090909090909</v>
       </c>
       <c r="M19" s="4">
         <f>AVERAGE(Table2[Luar Jawa])</f>
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2945,11 +3354,11 @@
       </c>
       <c r="L20" s="4">
         <f>_xlfn.VAR.S(Table2[Jawa])</f>
-        <v>29.818181818181813</v>
+        <v>51.090909090909079</v>
       </c>
       <c r="M20" s="4">
         <f>_xlfn.VAR.S(Table2[Luar Jawa])</f>
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2972,11 +3381,11 @@
       </c>
       <c r="L21" s="4">
         <f>(1-L15)*L20/COUNT(Table2[Jawa])</f>
-        <v>1.5180165289256196</v>
+        <v>2.6009917355371894</v>
       </c>
       <c r="M21" s="4">
         <f>(1-M15)*M20/COUNT(Table2[Luar Jawa])</f>
-        <v>6.3</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3208,4 +3617,289 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192C9E47-1F54-46E0-BAEF-31B944AAF6B3}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="13">
+        <v>174</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="13">
+        <v>160</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="13">
+        <v>162</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="13">
+        <v>164</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="13">
+        <v>163</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="13">
+        <v>156</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="13">
+        <v>155</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="13">
+        <v>157</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13">
+        <v>165</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="13">
+        <v>161</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="13">
+        <v>151</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="13">
+        <v>170</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="13">
+        <v>170</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="13">
+        <v>154</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="13">
+        <v>157</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="13">
+        <v>167</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="13">
+        <v>163</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="21">
+        <v>168</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>